--- a/读取xmind/ExcelCase/Redis故障切换测试用例.xlsx
+++ b/读取xmind/ExcelCase/Redis故障切换测试用例.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,37 +488,37 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Redis故障切换</t>
+          <t>Redis故障切换测试用例</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>后置机_tsf-gateway_创建部署组</t>
+          <t>后置机（日志路径：/var/log/tsf-oss/）_tsf-gateway_创建部署组</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1024593</t>
+          <t>1014603</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-已有集群并创建命名空间</t>
+          <t>已有集群并创建命名空间</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-1.创建部署组
-2.查看tsf-gateway日志是否有报错</t>
+          <t>1.创建部署组
+2.查看tsf-gateway日志是否有报错
+3.查看master和salve节点中的键值对</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-1.创建成功
-2.日志中无error信息</t>
+          <t>1.创建成功
+2.日志中无error信息
+3.redis中key-value有新增
+4.redis的master和slave节点的数据保持一致</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -545,37 +545,37 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Redis故障切换</t>
+          <t>Redis故障切换测试用例</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>后置机_tsf-resource_部署应用-&gt;保存并启动</t>
+          <t>后置机（日志路径：/var/log/tsf-oss/）_tsf-resource_部署应用-&gt;保存并启动</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1024593</t>
+          <t>1014603</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-已新建应用并上传程序包</t>
+          <t>已新建应用并上传程序包</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-1.部署应用保存并启动
-2.查看tsf-gateway日志是否有报错</t>
+          <t>1.部署应用保存并启动
+2.查看tsf-resource日志是否有报错
+3.查看master和salve节点中的键值对</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-1.部署成功，应用启动成功
-2.日志中无error信息</t>
+          <t>1.部署成功，应用启动成功
+2.日志中无error信息
+3.redis中key-value有新增
+4.redis的master和slave节点的数据保持一致</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -602,17 +602,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Redis故障切换</t>
+          <t>Redis故障切换测试用例</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>后置机_tsf-resource_部署组-&gt;基本信息-&gt;联调配置正常显示</t>
+          <t>后置机（日志路径：/var/log/tsf-oss/）_tsf-resource_部署组-&gt;基本信息-&gt;联调配置正常显示</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1024593</t>
+          <t>1014603</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -622,16 +622,17 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-1.部署组基本信息页查看联调配置
-2.查看tsf-gateway日志是否有报错</t>
+          <t>1.部署组基本信息页查看联调配置
+2.查看tsf-resource日志是否有报错
+3.查看master和salve节点中的键值对</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-1.联调配置正常显示
-2.日志中无error信息</t>
+          <t>1.联调配置正常显示
+2.日志中无error信息
+3.redis中key-value有新增
+4.redis的master和slave节点的数据保持一致</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -658,39 +659,39 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Redis故障切换</t>
+          <t>Redis故障切换测试用例</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>后置机_tsf-resource_vmGroup_虚拟机缩小实例</t>
+          <t>后置机（日志路径：/var/log/tsf-oss/）_tsf-resource_vmGroup*_虚拟机缩小实例</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1024593</t>
+          <t>1014603</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-已有虚拟机实例</t>
+          <t>已有虚拟机实例</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-1.扩容实例
+          <t>1.扩容实例
 2.缩小实例
-3.查看tsf-gateway日志是否有报错</t>
+3.查看tsf-resource日志是否有报错
+4.查看master和salve节点中的键值对</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-1.扩容成功
+          <t>1.扩容成功
 2.缩小成功
-3.日志中无error信息</t>
+3.日志中无error信息
+4.redis中key-value有新增
+5.redis的master和slave节点的数据保持一致</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -717,17 +718,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Redis故障切换</t>
+          <t>Redis故障切换测试用例</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>后置机_tsf-ms_服务熔断-&gt;新建熔断规则</t>
+          <t>后置机（日志路径：/var/log/tsf-oss/）_tsf-ms_服务熔断-&gt;新建熔断规则</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1024593</t>
+          <t>1014603</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -737,16 +738,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-1.新建熔断规则
-2.查看tsf-ms日志是否有报错</t>
+          <t>1.新建熔断规则
+2.查看tsf-ms日志是否有报错
+3.触发熔断规则，查看熔断规则是否生效
+4.查看master和salve节点中的键值对</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-1.新建成功
-2.日志中无error信息</t>
+          <t>1.新建成功
+2.日志中无error信息
+3.熔断规则生效
+4.redis中key-value有新增
+5.redis的master和slave节点的数据保持一致</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -773,17 +777,17 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Redis故障切换</t>
+          <t>Redis故障切换测试用例</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>后置机_tsf-ms_服务治理-&gt;接口列表-&gt;请求详情-&gt;调试-&gt;调试</t>
+          <t>后置机（日志路径：/var/log/tsf-oss/）_tsf-ms_服务限流-&gt;新建限流规则</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1024593</t>
+          <t>1014603</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -793,16 +797,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-1.调试接口
-2.查看tsf-ms日志是否有报错</t>
+          <t>1.新建限流规则
+2.查看tsf-ms日志是否有报错
+3.触发限流规则，查看限流规则是否生效
+4.查看master和salve节点中的键值对</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-1.接口返回200
-2.日志中无error信息</t>
+          <t>1.新建成功
+2.日志中无error信息
+3.限流规则生效
+4.redis中key-value有新增
+5.redis的master和slave节点的数据保持一致</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -829,17 +836,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Redis故障切换</t>
+          <t>Redis故障切换测试用例</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>后置机_tsf-ms_服务治理-&gt;接口列表-&gt;导出API-&gt;导出</t>
+          <t>后置机（日志路径：/var/log/tsf-oss/）_tsf-ms_服务治理-&gt;接口列表-&gt;请求详情-&gt;调试-&gt;调试</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1024593</t>
+          <t>1014603</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -849,16 +856,17 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-1.接口列表导出API
-2.查看tsf-ms日志是否有报错</t>
+          <t>1.调试接口
+2.查看tsf-ms日志是否有报错
+3.查看master和salve节点中的键值对</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-1.导出成功，导出的文件与选中的接口一致
-2.日志中无error信息</t>
+          <t>1.接口返回200
+2.日志中无error信息
+3.redis中key-value有新增
+4.redis的master和slave节点的数据保持一致</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -885,17 +893,17 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Redis故障切换</t>
+          <t>Redis故障切换测试用例</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>后置机_tsf-ms_概览微服务数量显示无异常</t>
+          <t>后置机（日志路径：/var/log/tsf-oss/）_tsf-ms_服务治理-&gt;接口列表-&gt;导出API-&gt;导出</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1024593</t>
+          <t>1014603</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -905,16 +913,17 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-1.查看概览
-2.查看tsf-ms日志是否有报错</t>
+          <t>1.接口列表导出API
+2.查看tsf-ms日志是否有报错
+3.查看master和salve节点中的键值对</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-1.概览微服务数量显示数量正确
-2.日志中无error信息</t>
+          <t>1.导出成功，导出的文件与选中的接口一致
+2.日志中无error信息
+3.redis中key-value有新增
+4.redis的master和slave节点的数据保持一致</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -941,17 +950,17 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Redis故障切换</t>
+          <t>Redis故障切换测试用例</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>后置机_tsf-ms_服务治理新建服务</t>
+          <t>后置机（日志路径：/var/log/tsf-oss/）_tsf-ms_概览微服务数量显示无异常</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1024593</t>
+          <t>1014603</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -961,16 +970,17 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-1.新建服务
-2.查看tsf-ms日志是否有报错</t>
+          <t>1.查看概览
+2.查看tsf-ms日志是否有报错
+3.查看master和salve节点中的键值对</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-1.新建服务成功
-2.日志中无error信息</t>
+          <t>1.概览微服务数量显示数量正确
+2.日志中无error信息
+3.redis中key-value有新增
+4.redis的master和slave节点的数据保持一致</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -997,17 +1007,17 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Redis故障切换</t>
+          <t>Redis故障切换测试用例</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>后置机_tsf-ms_服务治理删除服务</t>
+          <t>后置机（日志路径：/var/log/tsf-oss/）_tsf-ms_服务治理新建服务</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1024593</t>
+          <t>1014603</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1017,16 +1027,17 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-1.删除服务
-2.查看tsf-ms日志是否有报错</t>
+          <t>1.新建服务
+2.查看tsf-ms日志是否有报错
+3.查看master和salve节点中的键值对</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-1.删除服务成功
-2.日志中无error信息</t>
+          <t>1.新建服务成功
+2.日志中无error信息
+3.redis中key-value有新增
+4.redis的master和slave节点的数据保持一致</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1053,37 +1064,37 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Redis故障切换</t>
+          <t>Redis故障切换测试用例</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>前置机_前置机access_用户登录login</t>
+          <t>后置机（日志路径：/var/log/tsf-oss/）_tsf-ms_服务治理删除服务</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1024593</t>
+          <t>1014603</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-未登录</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-1.登录TSF
-2.查看前置机access日志是否有报错</t>
+          <t>1.删除服务
+2.查看tsf-ms日志是否有报错
+3.查看master和salve节点中的键值对</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-1.登录成功
-2.日志中无error信息</t>
+          <t>1.删除服务成功
+2.日志中无error信息
+3.redis中key-value有新增
+4.redis的master和slave节点的数据保持一致</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1110,37 +1121,37 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Redis故障切换</t>
+          <t>Redis故障切换测试用例</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>前置机_前置机access_用户登出logout</t>
+          <t>后置机（日志路径：/var/log/tsf-oss/）_tsf-apm_日志投递规则管理</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1024593</t>
+          <t>1014603</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-已登录</t>
+          <t>进入账户管理及安全页面</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-1.登出TSF
-2.查看前置机access日志是否有报错</t>
+          <t>1.日志投递管理页面绑定/接触投递规则
+2.查看前置机tsf-apm日志是否有报错
+3.查看master和salve节点中的键值对</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-1.登出成功
-2.日志中无error信息</t>
+          <t>1.绑定/解除成功
+2.日志中无error信息
+3.redis中key-value有新增
+4.redis的master和slave节点的数据保持一致</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1167,36 +1178,37 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Redis故障切换</t>
+          <t>Redis故障切换测试用例</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>前置机_account_重置密码</t>
+          <t>前置机access（日志路径：/opt/access/auth/log/access/）_账户登录_用户登录login</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>1024593</t>
+          <t>1014603</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>未登录</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-1.重置密码
-2.查看前置机account日志是否有报错</t>
+          <t>1.登录TSF
+2.查看前置机access日志是否有报错
+3.查看master和salve节点中的键值对</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-1.充值成功
-2.日志中无error信息</t>
+          <t>1.登录成功
+2.日志中无error信息
+3.redis中key-value有新增
+4.redis的master和slave节点的数据保持一致</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1223,38 +1235,37 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Redis故障切换</t>
+          <t>Redis故障切换测试用例</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>前置机_account_验证码</t>
+          <t>前置机access（日志路径：/opt/access/auth/log/access/）_账户登录_用户登出logout</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>1024593</t>
+          <t>1014603</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>已登录</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-1.更换验证码
-2.输入验证码进行登录
-3.查看前置机account日志是否有报错</t>
+          <t>1.登出TSF
+2.查看前置机access日志是否有报错
+3.查看master和salve节点中的键值对</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-1.验证码更换成功
-2.输入正确验证码登录成功，输入错误验证码登录失败
-3.日志中无error信息</t>
+          <t>1.登出成功
+2.日志中无error信息
+3.redis中key-value有新增
+4.redis的master和slave节点的数据保持一致</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1281,37 +1292,39 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Redis故障切换</t>
+          <t>Redis故障切换测试用例</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>前置机_account_用户锁定</t>
+          <t>前置机access（日志路径：/opt/access/auth/log/access/）_账户登录_验证码</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1024593</t>
+          <t>1014603</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-1.锁定用户
-2.查看前置机account日志是否有报错</t>
+          <t>1.更换验证码
+2.输入验证码进行登录
+3.查看前置机account日志是否有报错
+4.查看master和salve节点中的键值对</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-1.锁定用户后登录失败
-2.日志中无error信息</t>
+          <t>1.验证码更换成功
+2.输入正确验证码登录成功，输入错误验证码登录失败
+3.日志中无error信息
+4.redis中key-value有新增
+5.redis的master和slave节点的数据保持一致</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1338,36 +1351,37 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Redis故障切换</t>
+          <t>Redis故障切换测试用例</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>前置机_account_用户密码重置</t>
+          <t>前置机access（日志路径：/opt/access/auth/log/access/）_account_重置密码</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1024593</t>
+          <t>1014603</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>进入账户管理及安全页面</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-1.重置密码
-2.查看前置机account日志是否有报错</t>
+          <t>1.重置密码
+2.查看前置机account日志是否有报错
+3.查看master和salve节点中的键值对</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-1.重置密码成功，使用新的密码可以成功登录，使用旧密码登录失败
-2.日志中无error信息</t>
+          <t>1.重置成功
+2.日志中无error信息
+3.redis中key-value有新增
+4.redis的master和slave节点的数据保持一致</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1394,36 +1408,37 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Redis故障切换</t>
+          <t>Redis故障切换测试用例</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>前置机_account_用户账号创建</t>
+          <t>前置机access（日志路径：/opt/access/auth/log/access/）_account_用户锁定</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1024593</t>
+          <t>1014603</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>进入账户管理及安全页面</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-1.创建新的用户账号
-2.查看前置机account日志是否有报错</t>
+          <t>1.锁定用户
+2.查看前置机account日志是否有报错
+3.查看master和salve节点中的键值对</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-1.创建用户账号成功，能够使用新的用户账号进行登录
-2.日志中无error信息</t>
+          <t>1.锁定用户后登录失败
+2.日志中无error信息
+3.redis中key-value有新增
+4.redis的master和slave节点的数据保持一致</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1450,54 +1465,278 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Redis故障切换</t>
+          <t>Redis故障切换测试用例</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>前置机_account_用户删除</t>
+          <t>前置机access（日志路径：/opt/access/auth/log/access/）_account_用户密码重置</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1024593</t>
+          <t>1014603</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
+          <t>进入账户管理及安全页面</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>1.重置密码
+2.查看前置机account日志是否有报错
+3.查看master和salve节点中的键值对</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.重置密码成功，使用新的密码可以成功登录，使用旧密码登录失败
+2.日志中无error信息
+3.redis中key-value有新增
+4.redis的master和slave节点的数据保持一致</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>功能测试</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>中</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>黄金</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Redis故障切换测试用例</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>前置机access（日志路径：/opt/access/auth/log/access/）_account_用户账号创建</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1014603</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>进入账户管理及安全页面</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>1.创建新的用户账号
+2.查看前置机account日志是否有报错
+3.查看master和salve节点中的键值对</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.创建用户账号成功，能够使用新的用户账号进行登录
+2.日志中无error信息
+3.redis中key-value有新增
+4.redis的master和slave节点的数据保持一致</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>功能测试</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>中</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>黄金</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Redis故障切换测试用例</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>前置机access（日志路径：/opt/access/auth/log/access/）_account_用户删除</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>1014603</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>进入账户管理及安全页面</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>1.删除已有的账户
+2.查看前置机account日志是否有报错
+3.查看master和salve节点中的键值对</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.删除账户后不能再使用该账户进行登录
+2.日志中无error信息
+3.redis中key-value有新增
+4.redis的master和slave节点的数据保持一致</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>功能测试</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>中</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>黄金</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Redis故障切换测试用例</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>切换redis主从_再次测试功能是否存在异常</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>1014603</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>redis节点数量在两台以上</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>1.在运营端停止redis的master节点
+2.重新测试涉及到redis的功能</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.原master节点状态变为停止，salve节点切换为master节点
+2.redis功能使用无异常</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>功能测试</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>中</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>黄金</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Redis故障切换测试用例</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>切换redis主从_查看切换redis主从后，是否退出登录态</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>1014603</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
           <t>/</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-1.删除已有的账户
-2.查看前置机account日志是否有报错</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-1.删除账户后不能再使用该账户进行登录
-2.日志中无error信息</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>功能测试</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>正常</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>中</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>1.在运营端停止redis的master节点
+2.刷新前端页面观察是否需要重新登录
+3.查看任意日志观察是否存在报错</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.前端页面刷新后无需重新登录
+3.日志中不出现“UnauthorizedOperation.SsoExpiredCredential: 账号未登录/会话失效‘错误</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>功能测试</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>中</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
         <is>
           <t>黄金</t>
         </is>

--- a/读取xmind/ExcelCase/Redis故障切换测试用例.xlsx
+++ b/读取xmind/ExcelCase/Redis故障切换测试用例.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1141,7 +1141,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1.日志投递管理页面绑定/接触投递规则
+          <t>1.日志投递管理页面绑定/解除投递规则
 2.查看前置机tsf-apm日志是否有报错
 3.查看master和salve节点中的键值对</t>
         </is>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>前置机access（日志路径：/opt/access/auth/log/access/）_account_重置密码</t>
+          <t>前置机access（日志路径：/opt/access/auth/log/access/）_account_用户锁定</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1370,70 +1370,13 @@
         </is>
       </c>
       <c r="E17" t="inlineStr">
-        <is>
-          <t>1.重置密码
-2.查看前置机account日志是否有报错
-3.查看master和salve节点中的键值对</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>1.重置成功
-2.日志中无error信息
-3.redis中key-value有新增
-4.redis的master和slave节点的数据保持一致</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>功能测试</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>正常</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>中</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>黄金</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Redis故障切换测试用例</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>前置机access（日志路径：/opt/access/auth/log/access/）_account_用户锁定</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>1024741</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>进入账户管理及安全页面</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
         <is>
           <t>1.锁定用户
 2.查看前置机account日志是否有报错
 3.查看master和salve节点中的键值对</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1.锁定用户后登录失败
 2.日志中无error信息
@@ -1441,56 +1384,56 @@
 4.redis的master和slave节点的数据保持一致</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>功能测试</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>正常</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>中</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>黄金</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Redis故障切换测试用例</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>功能测试</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>中</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>黄金</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Redis故障切换测试用例</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>前置机access（日志路径：/opt/access/auth/log/access/）_account_用户密码重置</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>1024741</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>1024741</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>进入账户管理及安全页面</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1.重置密码
 2.查看前置机account日志是否有报错
 3.查看master和salve节点中的键值对</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1.重置密码成功，使用新的密码可以成功登录，使用旧密码登录失败
 2.日志中无error信息
@@ -1498,56 +1441,56 @@
 4.redis的master和slave节点的数据保持一致</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>功能测试</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>正常</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>中</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>黄金</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Redis故障切换测试用例</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>功能测试</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>中</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>黄金</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Redis故障切换测试用例</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>前置机access（日志路径：/opt/access/auth/log/access/）_account_用户账号创建</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>1024741</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>1024741</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>进入账户管理及安全页面</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1.创建新的用户账号
 2.查看前置机account日志是否有报错
 3.查看master和salve节点中的键值对</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1.创建用户账号成功，能够使用新的用户账号进行登录
 2.日志中无error信息
@@ -1555,56 +1498,56 @@
 4.redis的master和slave节点的数据保持一致</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>功能测试</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>正常</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>中</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>黄金</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Redis故障切换测试用例</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>功能测试</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>中</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>黄金</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Redis故障切换测试用例</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>前置机access（日志路径：/opt/access/auth/log/access/）_account_用户删除</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>1024741</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1024741</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>进入账户管理及安全页面</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1.删除已有的账户
 2.查看前置机account日志是否有报错
 3.查看master和salve节点中的键值对</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1.删除账户后不能再使用该账户进行登录
 2.日志中无error信息
@@ -1612,6 +1555,60 @@
 4.redis的master和slave节点的数据保持一致</t>
         </is>
       </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>功能测试</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>中</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>黄金</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Redis故障切换测试用例</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>切换redis主从_再次测试功能是否存在异常</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>1024741</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>redis节点数量在两台以上</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>1.在运营端停止redis的master节点
+2.重新测试涉及到redis的功能</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.原master节点状态变为停止，salve节点切换为master节点
+2.redis功能使用无异常</t>
+        </is>
+      </c>
       <c r="G21" t="inlineStr">
         <is>
           <t>功能测试</t>
@@ -1641,7 +1638,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>切换redis主从_再次测试功能是否存在异常</t>
+          <t>切换redis主从_查看切换redis主从后，是否退出登录态</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1651,92 +1648,38 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>redis节点数量在两台以上</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
-        <is>
-          <t>1.在运营端停止redis的master节点
-2.重新测试涉及到redis的功能</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>1.原master节点状态变为停止，salve节点切换为master节点
-2.redis功能使用无异常</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>功能测试</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>正常</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>中</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>黄金</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Redis故障切换测试用例</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>切换redis主从_查看切换redis主从后，是否退出登录态</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>1024741</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
         <is>
           <t>1.在运营端停止redis的master节点
 2.刷新前端页面观察是否需要重新登录
 3.查看任意日志观察是否存在报错</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>2.前端页面刷新后无需重新登录
 3.日志中不出现“UnauthorizedOperation.SsoExpiredCredential: 账号未登录/会话失效‘错误</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>功能测试</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>正常</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>中</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>功能测试</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>中</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
         <is>
           <t>黄金</t>
         </is>
